--- a/pair_by_country.xlsx
+++ b/pair_by_country.xlsx
@@ -14,56 +14,98 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+  <si>
+    <t>France and Germany demand closer EU cooperation in fight ...</t>
+  </si>
+  <si>
+    <t>France; Germany; Belgium and Spain call for the creation of a ...</t>
+  </si>
+  <si>
+    <t>France, Germany push for tighter E.U. borders after attacks</t>
+  </si>
+  <si>
+    <t>UK and France to blame for chaos in Libya, says presidential hopeful</t>
+  </si>
+  <si>
+    <t>Germany calls for closer cooperation with France over security ...</t>
+  </si>
+  <si>
+    <t>Israel, Switzerland and UK to join Horizon Europe by end of year</t>
+  </si>
+  <si>
+    <t>Weapons and IS flag found amid bomb attack arrests in Denmark and Germany, 
+say police</t>
+  </si>
+  <si>
+    <t>France and the UK: A Decade of the Lancaster House Treaties</t>
+  </si>
   <si>
     <t>France, Britain Fearful of Resurgent Jihadist Threat After Lockdown</t>
-  </si>
-  <si>
-    <t>UK and France to blame for chaos in Libya, says presidential hopeful</t>
-  </si>
-  <si>
-    <t>France and Germany demand closer EU cooperation in fight ...</t>
-  </si>
-  <si>
-    <t>France; Germany; Belgium and Spain call for the creation of a ...</t>
   </si>
   <si>
     <t>Teaching anti-terrorism: how France and England use schools to counter 
 radicalisation</t>
   </si>
   <si>
-    <t>Are France and Austria fighting a war on 'political Islam' – or a war on 
-Muslims?</t>
+    <t>Nice church attacker: A journey from Tunisia to Italy to France</t>
+  </si>
+  <si>
+    <t>Extend border controls to counter terror threat, say France and Germany</t>
+  </si>
+  <si>
+    <t>https://www.euractiv.com/section/justice-home-affairs/news/france-and-germany-demand-closer-eu-cooperation-in-fight-against-terrorism/</t>
+  </si>
+  <si>
+    <t>https://www.eurojust.europa.eu/france-germany-belgium-and-spain-call-creation-european-judicial-counter-terrorism-register</t>
+  </si>
+  <si>
+    <t>https://www.nbcnews.com/news/world/france-germany-push-tighter-e-u-borders-after-attacks-n1247515</t>
+  </si>
+  <si>
+    <t>https://www.theguardian.com/world/2021/jun/01/libyan-politician-calls-britain-lazy-over-chaos-in-his-country</t>
+  </si>
+  <si>
+    <t>https://www.euractiv.com/section/defence-and-security/news/germany-calls-for-closer-cooperation-with-france-over-security-threats/</t>
+  </si>
+  <si>
+    <t>https://sciencebusiness.net/framework-programmes/news/israel-switzerland-and-uk-join-horizon-europe-end-year</t>
+  </si>
+  <si>
+    <t>https://www.euronews.com/2021/02/12/denmark-and-germany-arrest-14-people-over-planned-bomb-attack</t>
+  </si>
+  <si>
+    <t>https://rusi.org/commentary/france-and-uk-decade-lancaster-house-treaties</t>
   </si>
   <si>
     <t>https://www.voanews.com/europe/france-britain-fearful-resurgent-jihadist-threat-after-lockdown</t>
   </si>
   <si>
-    <t>https://www.theguardian.com/world/2021/jun/01/libyan-politician-calls-britain-lazy-over-chaos-in-his-country</t>
-  </si>
-  <si>
-    <t>https://www.euractiv.com/section/justice-home-affairs/news/france-and-germany-demand-closer-eu-cooperation-in-fight-against-terrorism/</t>
-  </si>
-  <si>
-    <t>https://www.eurojust.europa.eu/france-germany-belgium-and-spain-call-creation-european-judicial-counter-terrorism-register</t>
-  </si>
-  <si>
     <t>https://theconversation.com/teaching-anti-terrorism-how-france-and-england-use-schools-to-counter-radicalisation-150921</t>
   </si>
   <si>
-    <t>https://www.haaretz.com/world-news/.premium-are-france-and-austria-fighting-a-war-on-terror-or-a-war-on-muslims-1.9655265</t>
+    <t>https://www.infomigrants.net/en/post/28247/nice-church-attacker-a-journey-from-tunisia-to-italy-to-france</t>
+  </si>
+  <si>
+    <t>https://www.theguardian.com/world/2017/sep/15/france-and-germany-seek-to-extend-limit-on-schengen-zone-suspension</t>
+  </si>
+  <si>
+    <t>[16, 17]</t>
+  </si>
+  <si>
+    <t>[10, 12, 16, 17]</t>
   </si>
   <si>
     <t>[11, 17]</t>
   </si>
   <si>
-    <t>[16, 17]</t>
-  </si>
-  <si>
-    <t>[10, 12, 16, 17]</t>
-  </si>
-  <si>
-    <t>[14, 17]</t>
+    <t>[7, 11]</t>
+  </si>
+  <si>
+    <t>[8, 16]</t>
+  </si>
+  <si>
+    <t>[17, 18]</t>
   </si>
 </sst>
 </file>
@@ -408,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -419,10 +461,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -430,10 +472,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -441,10 +483,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -452,10 +494,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -463,10 +505,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -474,10 +516,76 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -488,6 +596,12 @@
     <hyperlink ref="B4" r:id="rId4"/>
     <hyperlink ref="B5" r:id="rId5"/>
     <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId7"/>
+    <hyperlink ref="B8" r:id="rId8"/>
+    <hyperlink ref="B9" r:id="rId9"/>
+    <hyperlink ref="B10" r:id="rId10"/>
+    <hyperlink ref="B11" r:id="rId11"/>
+    <hyperlink ref="B12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
